--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739315</v>
+        <v>111739316</v>
       </c>
       <c r="B2" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739317</v>
+        <v>111739309</v>
       </c>
       <c r="B3" t="n">
-        <v>78579</v>
+        <v>78536</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573911.5177193542</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R3" t="n">
-        <v>7172648.020174325</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739313</v>
+        <v>111739307</v>
       </c>
       <c r="B4" t="n">
-        <v>73701</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,43 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1467</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574025.0565134182</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R4" t="n">
-        <v>7172443.417908707</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739309</v>
+        <v>111739313</v>
       </c>
       <c r="B5" t="n">
-        <v>78536</v>
+        <v>73701</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>1467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574011.1276117128</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R5" t="n">
-        <v>7172434.078971106</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1245,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739316</v>
+        <v>111739311</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1294,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573904.5013778479</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R7" t="n">
-        <v>7172636.708955797</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1357,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739311</v>
+        <v>111739317</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,21 +1382,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574011.8892867711</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R8" t="n">
-        <v>7172473.089384713</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1469,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739307</v>
+        <v>111739315</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,47 +1490,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>573960.5743707293</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R9" t="n">
-        <v>7172501.399265604</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739316</v>
+        <v>111739309</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78536</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573904.5013778479</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R2" t="n">
-        <v>7172636.708955797</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739309</v>
+        <v>111739315</v>
       </c>
       <c r="B3" t="n">
-        <v>78536</v>
+        <v>78605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229497</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574011.1276117128</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R3" t="n">
-        <v>7172434.078971106</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739307</v>
+        <v>111739313</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>73701</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,43 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>1467</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573960.5743707293</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R4" t="n">
-        <v>7172501.399265604</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739313</v>
+        <v>111739306</v>
       </c>
       <c r="B5" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1032,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574025.0565134182</v>
+        <v>573906.0397215446</v>
       </c>
       <c r="R5" t="n">
-        <v>7172443.417908707</v>
+        <v>7172521.061635921</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1137,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739306</v>
+        <v>111739316</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,39 +1149,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573906.0397215446</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R6" t="n">
-        <v>7172521.061635921</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1254,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739311</v>
+        <v>111739317</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1294,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>574011.8892867711</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R7" t="n">
-        <v>7172473.089384713</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1366,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739317</v>
+        <v>111739311</v>
       </c>
       <c r="B8" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,21 +1373,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1406,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>573911.5177193542</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R8" t="n">
-        <v>7172648.020174325</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1478,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739315</v>
+        <v>111739307</v>
       </c>
       <c r="B9" t="n">
-        <v>78605</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,38 +1481,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>573904.5013778479</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R9" t="n">
-        <v>7172636.708955797</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739309</v>
+        <v>111739317</v>
       </c>
       <c r="B2" t="n">
-        <v>78536</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229497</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574011.1276117128</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R2" t="n">
-        <v>7172434.078971106</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739315</v>
+        <v>111739311</v>
       </c>
       <c r="B3" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573904.5013778479</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R3" t="n">
-        <v>7172636.708955797</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739313</v>
+        <v>111739306</v>
       </c>
       <c r="B4" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574025.0565134182</v>
+        <v>573906.0397215446</v>
       </c>
       <c r="R4" t="n">
-        <v>7172443.417908707</v>
+        <v>7172521.061635921</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739306</v>
+        <v>111739307</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,27 +1037,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1061,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573906.0397215446</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R5" t="n">
-        <v>7172521.061635921</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739316</v>
+        <v>111739315</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739317</v>
+        <v>111739313</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>73701</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>1467</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1294,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573911.5177193542</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R7" t="n">
-        <v>7172648.020174325</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1357,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739311</v>
+        <v>111739316</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,21 +1382,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574011.8892867711</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R8" t="n">
-        <v>7172473.089384713</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1469,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739307</v>
+        <v>111739309</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>78536</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,47 +1490,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>229497</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>573960.5743707293</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R9" t="n">
-        <v>7172501.399265604</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739317</v>
+        <v>111739306</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573911.5177193542</v>
+        <v>573906.0397215446</v>
       </c>
       <c r="R2" t="n">
-        <v>7172648.020174325</v>
+        <v>7172521.061635921</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739311</v>
+        <v>111739313</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>73701</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574011.8892867711</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R3" t="n">
-        <v>7172473.089384713</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739306</v>
+        <v>111739311</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,39 +925,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573906.0397215446</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R4" t="n">
-        <v>7172521.061635921</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739307</v>
+        <v>111739309</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>78536</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,47 +1033,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>229497</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573960.5743707293</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R5" t="n">
-        <v>7172501.399265604</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1142,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739315</v>
+        <v>111739307</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,38 +1145,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573904.5013778479</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R6" t="n">
-        <v>7172636.708955797</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739313</v>
+        <v>111739316</v>
       </c>
       <c r="B7" t="n">
-        <v>73701</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1467</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>574025.0565134182</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R7" t="n">
-        <v>7172443.417908707</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739316</v>
+        <v>111739317</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,21 +1382,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>573904.5013778479</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R8" t="n">
-        <v>7172636.708955797</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739309</v>
+        <v>111739315</v>
       </c>
       <c r="B9" t="n">
-        <v>78536</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,21 +1494,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>229497</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>574011.1276117128</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R9" t="n">
-        <v>7172434.078971106</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739306</v>
+        <v>111739316</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573906.0397215446</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R2" t="n">
-        <v>7172521.061635921</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739313</v>
+        <v>111739311</v>
       </c>
       <c r="B3" t="n">
-        <v>73701</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574025.0565134182</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R3" t="n">
-        <v>7172443.417908707</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739311</v>
+        <v>111739315</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574011.8892867711</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R4" t="n">
-        <v>7172473.089384713</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739309</v>
+        <v>111739306</v>
       </c>
       <c r="B5" t="n">
-        <v>78536</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,38 +1028,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574011.1276117128</v>
+        <v>573906.0397215446</v>
       </c>
       <c r="R5" t="n">
-        <v>7172434.078971106</v>
+        <v>7172521.061635921</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739307</v>
+        <v>111739317</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>78579</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,43 +1149,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573960.5743707293</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R6" t="n">
-        <v>7172501.399265604</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1254,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739316</v>
+        <v>111739313</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>73701</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1467</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1294,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573904.5013778479</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R7" t="n">
-        <v>7172636.708955797</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1366,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739317</v>
+        <v>111739309</v>
       </c>
       <c r="B8" t="n">
-        <v>78579</v>
+        <v>78536</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,25 +1369,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1406,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>573911.5177193542</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R8" t="n">
-        <v>7172648.020174325</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1478,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739315</v>
+        <v>111739307</v>
       </c>
       <c r="B9" t="n">
-        <v>78605</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,38 +1481,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>573904.5013778479</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R9" t="n">
-        <v>7172636.708955797</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739316</v>
+        <v>111739317</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573904.5013778479</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R2" t="n">
-        <v>7172636.708955797</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739311</v>
+        <v>111739316</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574011.8892867711</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R3" t="n">
-        <v>7172473.089384713</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739315</v>
+        <v>111739309</v>
       </c>
       <c r="B4" t="n">
-        <v>78605</v>
+        <v>78536</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>229497</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573904.5013778479</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R4" t="n">
-        <v>7172636.708955797</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739317</v>
+        <v>111739315</v>
       </c>
       <c r="B6" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573911.5177193542</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R6" t="n">
-        <v>7172648.020174325</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739313</v>
+        <v>111739307</v>
       </c>
       <c r="B7" t="n">
-        <v>73701</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,34 +1261,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1467</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>574025.0565134182</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R7" t="n">
-        <v>7172443.417908707</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1357,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739309</v>
+        <v>111739313</v>
       </c>
       <c r="B8" t="n">
-        <v>78536</v>
+        <v>73701</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,25 +1378,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229497</v>
+        <v>1467</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574011.1276117128</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R8" t="n">
-        <v>7172434.078971106</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1469,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739307</v>
+        <v>111739311</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,43 +1494,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>573960.5743707293</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R9" t="n">
-        <v>7172501.399265604</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739317</v>
+        <v>111739316</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573911.5177193542</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R2" t="n">
-        <v>7172648.020174325</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739316</v>
+        <v>111739313</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>73701</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>1467</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573904.5013778479</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R3" t="n">
-        <v>7172636.708955797</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739309</v>
+        <v>111739317</v>
       </c>
       <c r="B4" t="n">
-        <v>78536</v>
+        <v>78579</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229497</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574011.1276117128</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R4" t="n">
-        <v>7172434.078971106</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739306</v>
+        <v>111739311</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,39 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573906.0397215446</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R5" t="n">
-        <v>7172521.061635921</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739315</v>
+        <v>111739306</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,38 +1140,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573904.5013778479</v>
+        <v>573906.0397215446</v>
       </c>
       <c r="R6" t="n">
-        <v>7172636.708955797</v>
+        <v>7172521.061635921</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739307</v>
+        <v>111739315</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,47 +1257,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573960.5743707293</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R7" t="n">
-        <v>7172501.399265604</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1366,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739313</v>
+        <v>111739309</v>
       </c>
       <c r="B8" t="n">
-        <v>73701</v>
+        <v>78536</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,25 +1369,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1467</v>
+        <v>229497</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1406,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574025.0565134182</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R8" t="n">
-        <v>7172443.417908707</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1478,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739311</v>
+        <v>111739307</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,34 +1485,43 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>574011.8892867711</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R9" t="n">
-        <v>7172473.089384713</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739316</v>
+        <v>111739317</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573904.5013778479</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R2" t="n">
-        <v>7172636.708955797</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739313</v>
+        <v>111739316</v>
       </c>
       <c r="B3" t="n">
-        <v>73701</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1467</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574025.0565134182</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R3" t="n">
-        <v>7172443.417908707</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739317</v>
+        <v>111739306</v>
       </c>
       <c r="B4" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573911.5177193542</v>
+        <v>573906.0397215446</v>
       </c>
       <c r="R4" t="n">
-        <v>7172648.020174325</v>
+        <v>7172521.061635921</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739311</v>
+        <v>111739309</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78536</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1033,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574011.8892867711</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R5" t="n">
-        <v>7172473.089384713</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739306</v>
+        <v>111739315</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,43 +1145,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573906.0397215446</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R6" t="n">
-        <v>7172521.061635921</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739315</v>
+        <v>111739311</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573904.5013778479</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R7" t="n">
-        <v>7172636.708955797</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739309</v>
+        <v>111739313</v>
       </c>
       <c r="B8" t="n">
-        <v>78536</v>
+        <v>73701</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,25 +1369,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229497</v>
+        <v>1467</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574011.1276117128</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R8" t="n">
-        <v>7172434.078971106</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739317</v>
+        <v>111739309</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>78536</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>229497</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573911.5177193542</v>
+        <v>574011.1276117128</v>
       </c>
       <c r="R2" t="n">
-        <v>7172648.020174325</v>
+        <v>7172434.078971106</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739316</v>
+        <v>111739311</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573904.5013778479</v>
+        <v>574011.8892867711</v>
       </c>
       <c r="R3" t="n">
-        <v>7172636.708955797</v>
+        <v>7172473.089384713</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739309</v>
+        <v>111739315</v>
       </c>
       <c r="B5" t="n">
-        <v>78536</v>
+        <v>78605</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574011.1276117128</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R5" t="n">
-        <v>7172434.078971106</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739315</v>
+        <v>111739307</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,38 +1145,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573904.5013778479</v>
+        <v>573960.5743707293</v>
       </c>
       <c r="R6" t="n">
-        <v>7172636.708955797</v>
+        <v>7172501.399265604</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1245,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739311</v>
+        <v>111739317</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1294,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>574011.8892867711</v>
+        <v>573911.5177193542</v>
       </c>
       <c r="R7" t="n">
-        <v>7172473.089384713</v>
+        <v>7172648.020174325</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1357,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111739313</v>
+        <v>111739316</v>
       </c>
       <c r="B8" t="n">
-        <v>73701</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,21 +1382,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1467</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>574025.0565134182</v>
+        <v>573904.5013778479</v>
       </c>
       <c r="R8" t="n">
-        <v>7172443.417908707</v>
+        <v>7172636.708955797</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1469,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739307</v>
+        <v>111739313</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>73701</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,43 +1494,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>1467</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>573960.5743707293</v>
+        <v>574025.0565134182</v>
       </c>
       <c r="R9" t="n">
-        <v>7172501.399265604</v>
+        <v>7172443.417908707</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739309</v>
+        <v>111739317</v>
       </c>
       <c r="B2" t="n">
-        <v>78536</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229497</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574011.1276117128</v>
+        <v>573912</v>
       </c>
       <c r="R2" t="n">
-        <v>7172434.078971106</v>
+        <v>7172648</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -753,19 +753,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739311</v>
+        <v>111739307</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +798,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574011.8892867711</v>
+        <v>573961</v>
       </c>
       <c r="R3" t="n">
-        <v>7172473.089384713</v>
+        <v>7172501</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,19 +864,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739306</v>
+        <v>111739313</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,39 +909,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573906.0397215446</v>
+        <v>574025</v>
       </c>
       <c r="R4" t="n">
-        <v>7172521.061635921</v>
+        <v>7172443</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -982,19 +966,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739315</v>
+        <v>111739311</v>
       </c>
       <c r="B5" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,25 +1007,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1035,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573904.5013778479</v>
+        <v>574012</v>
       </c>
       <c r="R5" t="n">
-        <v>7172636.708955797</v>
+        <v>7172473</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1094,19 +1068,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1097,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739307</v>
+        <v>111739315</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,47 +1109,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573960.5743707293</v>
+        <v>573905</v>
       </c>
       <c r="R6" t="n">
-        <v>7172501.399265604</v>
+        <v>7172637</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1215,19 +1170,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,10 +1199,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739317</v>
+        <v>111739306</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,34 +1215,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573911.5177193542</v>
+        <v>573906</v>
       </c>
       <c r="R7" t="n">
-        <v>7172648.020174325</v>
+        <v>7172521</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1327,19 +1277,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1406,10 +1346,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>573904.5013778479</v>
+        <v>573905</v>
       </c>
       <c r="R8" t="n">
-        <v>7172636.708955797</v>
+        <v>7172637</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1439,19 +1379,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1478,10 +1408,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111739313</v>
+        <v>111739309</v>
       </c>
       <c r="B9" t="n">
-        <v>73701</v>
+        <v>78536</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,25 +1420,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1467</v>
+        <v>229497</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1448,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>574025.0565134182</v>
+        <v>574011</v>
       </c>
       <c r="R9" t="n">
-        <v>7172443.417908707</v>
+        <v>7172434</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1551,19 +1481,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 36220-2023.xlsx
+++ b/artfynd/A 36220-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111739317</v>
+        <v>111739313</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>73701</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>1467</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573912</v>
+        <v>574025</v>
       </c>
       <c r="R2" t="n">
-        <v>7172648</v>
+        <v>7172443</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111739307</v>
+        <v>111739306</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,31 +798,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -831,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573961</v>
+        <v>573906</v>
       </c>
       <c r="R3" t="n">
-        <v>7172501</v>
+        <v>7172521</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -893,10 +889,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111739313</v>
+        <v>111739307</v>
       </c>
       <c r="B4" t="n">
-        <v>73701</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -909,34 +905,43 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1467</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574025</v>
+        <v>573961</v>
       </c>
       <c r="R4" t="n">
-        <v>7172443</v>
+        <v>7172501</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -995,10 +1000,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111739311</v>
+        <v>111739317</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1011,21 +1016,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1035,10 +1040,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574012</v>
+        <v>573912</v>
       </c>
       <c r="R5" t="n">
-        <v>7172473</v>
+        <v>7172648</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1097,10 +1102,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111739315</v>
+        <v>111739311</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1109,25 +1114,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1137,10 +1142,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573905</v>
+        <v>574012</v>
       </c>
       <c r="R6" t="n">
-        <v>7172637</v>
+        <v>7172473</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1199,10 +1204,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111739306</v>
+        <v>111739315</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1211,43 +1216,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Bräntkullarna, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>573906</v>
+        <v>573905</v>
       </c>
       <c r="R7" t="n">
-        <v>7172521</v>
+        <v>7172637</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
